--- a/API_7/data/API.xlsx
+++ b/API_7/data/API.xlsx
@@ -1052,7 +1052,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="24"/>
     <col customWidth="1" max="3" min="3" style="2" width="12.75"/>
@@ -1383,55 +1383,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
-    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId43"/>
-    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId44"/>
-    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId45"/>
-    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId46"/>
-    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId47"/>
-    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId48"/>
-    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId49"/>
+    <hyperlink display="/member/register" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId2"/>
+    <hyperlink display="/member/register" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId3"/>
+    <hyperlink display="/member/register" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId4"/>
+    <hyperlink display="/member/register" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId5"/>
+    <hyperlink display="/member/register" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId6"/>
+    <hyperlink display="/member/register" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/register" r:id="rId7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1450,7 +1408,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="12.625"/>
     <col customWidth="1" max="2" min="2" style="2" width="19"/>
@@ -1704,41 +1662,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId31"/>
-    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId32"/>
-    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId33"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId34"/>
-    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId35"/>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="/member/login" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="/member/login" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink display="/member/login" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1757,7 +1685,7 @@
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="30.5"/>
     <col customWidth="1" max="4" min="4" style="2" width="22.875"/>
@@ -2215,76 +2143,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId61"/>
-    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId62"/>
-    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId63"/>
-    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId64"/>
-    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId65"/>
-    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId66"/>
-    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId67"/>
-    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId68"/>
-    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId69"/>
-    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId70"/>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="/member/recharge" ref="D3" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId2"/>
+    <hyperlink display="/member/recharge" ref="D4" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId3"/>
+    <hyperlink display="/member/recharge" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId4"/>
+    <hyperlink display="/member/recharge" ref="D6" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId5"/>
+    <hyperlink display="/member/recharge" ref="D7" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId6"/>
+    <hyperlink display="/member/recharge" ref="D8" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId7"/>
+    <hyperlink display="/member/recharge" ref="D9" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId8"/>
+    <hyperlink display="/member/recharge" ref="D10" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId9"/>
+    <hyperlink display="/member/recharge" ref="D11" tooltip="http://test.lemonban.com/futureloan/mvc/api//member/recharge" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2303,7 +2171,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="10.375"/>
     <col customWidth="1" max="2" min="2" style="2" width="33.625"/>
@@ -2754,20 +2622,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId13"/>
-    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId14"/>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="/member/login" ref="D5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2785,7 +2641,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="2" width="34.375"/>
     <col customWidth="1" max="4" min="4" style="2" width="14.375"/>
@@ -3884,13 +3740,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId7"/>
+    <hyperlink display="/member/login" ref="D2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
